--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H2">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I2">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J2">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.682465333333333</v>
+        <v>7.422100333333333</v>
       </c>
       <c r="N2">
-        <v>23.047396</v>
+        <v>22.266301</v>
       </c>
       <c r="O2">
-        <v>0.1143537482417799</v>
+        <v>0.1079917101744605</v>
       </c>
       <c r="P2">
-        <v>0.1279355392260154</v>
+        <v>0.1233128530949856</v>
       </c>
       <c r="Q2">
-        <v>44.88972560945689</v>
+        <v>35.85019686763189</v>
       </c>
       <c r="R2">
-        <v>404.007530485112</v>
+        <v>322.651771808687</v>
       </c>
       <c r="S2">
-        <v>0.01897654644956843</v>
+        <v>0.01775688040159435</v>
       </c>
       <c r="T2">
-        <v>0.02297007627610573</v>
+        <v>0.02051647460123747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H3">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I3">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J3">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>48.991984</v>
       </c>
       <c r="O3">
-        <v>0.2430824291039782</v>
+        <v>0.2376114531551428</v>
       </c>
       <c r="P3">
-        <v>0.2719533213553636</v>
+        <v>0.2713221799087278</v>
       </c>
       <c r="Q3">
-        <v>95.4223513503609</v>
+        <v>78.88028960606756</v>
       </c>
       <c r="R3">
-        <v>858.801162153248</v>
+        <v>709.9226064546081</v>
       </c>
       <c r="S3">
-        <v>0.04033855538528142</v>
+        <v>0.03907001888301178</v>
       </c>
       <c r="T3">
-        <v>0.04882762501228997</v>
+        <v>0.04514188483305927</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H4">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I4">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J4">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.879703999999998</v>
+        <v>11.67169466666667</v>
       </c>
       <c r="N4">
-        <v>26.639112</v>
+        <v>35.015084</v>
       </c>
       <c r="O4">
-        <v>0.1321746850287372</v>
+        <v>0.1698233937941641</v>
       </c>
       <c r="P4">
-        <v>0.1478730680994164</v>
+        <v>0.1939168032175879</v>
       </c>
       <c r="Q4">
-        <v>51.88535955036266</v>
+        <v>56.37656900158978</v>
       </c>
       <c r="R4">
-        <v>466.968235953264</v>
+        <v>507.389121014308</v>
       </c>
       <c r="S4">
-        <v>0.02193385952336029</v>
+        <v>0.02792375162986344</v>
       </c>
       <c r="T4">
-        <v>0.02654974273743218</v>
+        <v>0.03226337780784498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H5">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I5">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J5">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.396232</v>
+        <v>25.61772</v>
       </c>
       <c r="N5">
-        <v>42.792464</v>
+        <v>51.23544</v>
       </c>
       <c r="O5">
-        <v>0.3184836144765398</v>
+        <v>0.3727383448517759</v>
       </c>
       <c r="P5">
-        <v>0.2375399353857526</v>
+        <v>0.2837466486228202</v>
       </c>
       <c r="Q5">
-        <v>125.0211933126347</v>
+        <v>123.73860013388</v>
       </c>
       <c r="R5">
-        <v>750.127159875808</v>
+        <v>742.4316008032799</v>
       </c>
       <c r="S5">
-        <v>0.05285108006046442</v>
+        <v>0.06128868780695072</v>
       </c>
       <c r="T5">
-        <v>0.04264890324800722</v>
+        <v>0.04720903590781541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.843140666666667</v>
+        <v>4.830195666666667</v>
       </c>
       <c r="H6">
-        <v>17.529422</v>
+        <v>14.490587</v>
       </c>
       <c r="I6">
-        <v>0.1659459942619985</v>
+        <v>0.1644281803937369</v>
       </c>
       <c r="J6">
-        <v>0.1795441392991355</v>
+        <v>0.1663774220310514</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.892516</v>
+        <v>7.686250333333334</v>
       </c>
       <c r="N6">
-        <v>38.677548</v>
+        <v>23.058751</v>
       </c>
       <c r="O6">
-        <v>0.1919055231489648</v>
+        <v>0.1118350980244564</v>
       </c>
       <c r="P6">
-        <v>0.2146981359334519</v>
+        <v>0.1277015151558785</v>
       </c>
       <c r="Q6">
-        <v>75.33278453525067</v>
+        <v>37.12609305298189</v>
       </c>
       <c r="R6">
-        <v>677.995060817256</v>
+        <v>334.134837476837</v>
       </c>
       <c r="S6">
-        <v>0.03184595284332394</v>
+        <v>0.01838884167231657</v>
       </c>
       <c r="T6">
-        <v>0.03854779202530042</v>
+        <v>0.02124664888109431</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H7">
         <v>14.023321</v>
       </c>
       <c r="I7">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J7">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.682465333333333</v>
+        <v>7.422100333333333</v>
       </c>
       <c r="N7">
-        <v>23.047396</v>
+        <v>22.266301</v>
       </c>
       <c r="O7">
-        <v>0.1143537482417799</v>
+        <v>0.1079917101744605</v>
       </c>
       <c r="P7">
-        <v>0.1279355392260154</v>
+        <v>0.1233128530949856</v>
       </c>
       <c r="Q7">
-        <v>35.91122581356844</v>
+        <v>34.69416515618011</v>
       </c>
       <c r="R7">
-        <v>323.201032322116</v>
+        <v>312.247486405621</v>
       </c>
       <c r="S7">
-        <v>0.0151810026784516</v>
+        <v>0.01718428893392424</v>
       </c>
       <c r="T7">
-        <v>0.01837577719415479</v>
+        <v>0.01985489677688696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H8">
         <v>14.023321</v>
       </c>
       <c r="I8">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J8">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>48.991984</v>
       </c>
       <c r="O8">
-        <v>0.2430824291039782</v>
+        <v>0.2376114531551428</v>
       </c>
       <c r="P8">
-        <v>0.2719533213553636</v>
+        <v>0.2713221799087278</v>
       </c>
       <c r="Q8">
-        <v>76.33670200654045</v>
+        <v>76.33670200654046</v>
       </c>
       <c r="R8">
-        <v>687.0303180588639</v>
+        <v>687.0303180588641</v>
       </c>
       <c r="S8">
-        <v>0.03227034587016504</v>
+        <v>0.03781016022832862</v>
       </c>
       <c r="T8">
-        <v>0.03906149667769828</v>
+        <v>0.04368623172815716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H9">
         <v>14.023321</v>
       </c>
       <c r="I9">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J9">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.879703999999998</v>
+        <v>11.67169466666667</v>
       </c>
       <c r="N9">
-        <v>26.639112</v>
+        <v>35.015084</v>
       </c>
       <c r="O9">
-        <v>0.1321746850287372</v>
+        <v>0.1698233937941641</v>
       </c>
       <c r="P9">
-        <v>0.1478730680994164</v>
+        <v>0.1939168032175879</v>
       </c>
       <c r="Q9">
-        <v>41.50764652566132</v>
+        <v>54.55864030821823</v>
       </c>
       <c r="R9">
-        <v>373.5688187309519</v>
+        <v>491.0277627739641</v>
       </c>
       <c r="S9">
-        <v>0.01754681659583461</v>
+        <v>0.0270233174563493</v>
       </c>
       <c r="T9">
-        <v>0.0212394661315376</v>
+        <v>0.03122300729043527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H10">
         <v>14.023321</v>
       </c>
       <c r="I10">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J10">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.396232</v>
+        <v>25.61772</v>
       </c>
       <c r="N10">
-        <v>42.792464</v>
+        <v>51.23544</v>
       </c>
       <c r="O10">
-        <v>0.3184836144765398</v>
+        <v>0.3727383448517759</v>
       </c>
       <c r="P10">
-        <v>0.2375399353857526</v>
+        <v>0.2837466486228202</v>
       </c>
       <c r="Q10">
-        <v>100.0154098421573</v>
+        <v>119.74850361604</v>
       </c>
       <c r="R10">
-        <v>600.092459052944</v>
+        <v>718.49102169624</v>
       </c>
       <c r="S10">
-        <v>0.04228021100094412</v>
+        <v>0.059312362072403</v>
       </c>
       <c r="T10">
-        <v>0.03411859561283583</v>
+        <v>0.04568672508821223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.674440333333333</v>
+        <v>4.674440333333334</v>
       </c>
       <c r="H11">
         <v>14.023321</v>
       </c>
       <c r="I11">
-        <v>0.132754744919722</v>
+        <v>0.1591260005621083</v>
       </c>
       <c r="J11">
-        <v>0.1436330929257389</v>
+        <v>0.161012386613041</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.892516</v>
+        <v>7.686250333333334</v>
       </c>
       <c r="N11">
-        <v>38.677548</v>
+        <v>23.058751</v>
       </c>
       <c r="O11">
-        <v>0.1919055231489648</v>
+        <v>0.1118350980244564</v>
       </c>
       <c r="P11">
-        <v>0.2146981359334519</v>
+        <v>0.1277015151558785</v>
       </c>
       <c r="Q11">
-        <v>60.26529678854534</v>
+        <v>35.92891857023012</v>
       </c>
       <c r="R11">
-        <v>542.387671096908</v>
+        <v>323.360267132071</v>
       </c>
       <c r="S11">
-        <v>0.02547636877432663</v>
+        <v>0.01779587187110309</v>
       </c>
       <c r="T11">
-        <v>0.03083775730951242</v>
+        <v>0.02056152572934943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H12">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I12">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J12">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.682465333333333</v>
+        <v>7.422100333333333</v>
       </c>
       <c r="N12">
-        <v>23.047396</v>
+        <v>22.266301</v>
       </c>
       <c r="O12">
-        <v>0.1143537482417799</v>
+        <v>0.1079917101744605</v>
       </c>
       <c r="P12">
-        <v>0.1279355392260154</v>
+        <v>0.1233128530949856</v>
       </c>
       <c r="Q12">
-        <v>55.60511301941022</v>
+        <v>68.061380000399</v>
       </c>
       <c r="R12">
-        <v>500.446017174692</v>
+        <v>612.552420003591</v>
       </c>
       <c r="S12">
-        <v>0.02350633682251877</v>
+        <v>0.03371132909246929</v>
       </c>
       <c r="T12">
-        <v>0.02845314089262899</v>
+        <v>0.03895040184184063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H13">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I13">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J13">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>48.991984</v>
       </c>
       <c r="O13">
-        <v>0.2430824291039782</v>
+        <v>0.2376114531551428</v>
       </c>
       <c r="P13">
-        <v>0.2719533213553636</v>
+        <v>0.2713221799087278</v>
       </c>
       <c r="Q13">
-        <v>118.2001128181742</v>
+        <v>149.753748500816</v>
       </c>
       <c r="R13">
-        <v>1063.801015363568</v>
+        <v>1347.783736507344</v>
       </c>
       <c r="S13">
-        <v>0.04996755718118657</v>
+        <v>0.07417419244970194</v>
       </c>
       <c r="T13">
-        <v>0.06048300742354691</v>
+        <v>0.08570159290620505</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H14">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I14">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J14">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.879703999999998</v>
+        <v>11.67169466666667</v>
       </c>
       <c r="N14">
-        <v>26.639112</v>
+        <v>35.015084</v>
       </c>
       <c r="O14">
-        <v>0.1321746850287372</v>
+        <v>0.1698233937941641</v>
       </c>
       <c r="P14">
-        <v>0.1478730680994164</v>
+        <v>0.1939168032175879</v>
       </c>
       <c r="Q14">
-        <v>64.27063749400266</v>
+        <v>107.030572247716</v>
       </c>
       <c r="R14">
-        <v>578.4357374460239</v>
+        <v>963.2751502294441</v>
       </c>
       <c r="S14">
-        <v>0.02716957435559321</v>
+        <v>0.05301307208253658</v>
       </c>
       <c r="T14">
-        <v>0.03288729047700328</v>
+        <v>0.0612518259016531</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H15">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I15">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J15">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.396232</v>
+        <v>25.61772</v>
       </c>
       <c r="N15">
-        <v>42.792464</v>
+        <v>51.23544</v>
       </c>
       <c r="O15">
-        <v>0.3184836144765398</v>
+        <v>0.3727383448517759</v>
       </c>
       <c r="P15">
-        <v>0.2375399353857526</v>
+        <v>0.2837466486228202</v>
       </c>
       <c r="Q15">
-        <v>154.8643367627547</v>
+        <v>234.91697731884</v>
       </c>
       <c r="R15">
-        <v>929.1860205765281</v>
+        <v>1409.50186391304</v>
       </c>
       <c r="S15">
-        <v>0.06546688000563115</v>
+        <v>0.1163561998266437</v>
       </c>
       <c r="T15">
-        <v>0.05282939588206642</v>
+        <v>0.08962606660816787</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.237925666666666</v>
+        <v>9.170097</v>
       </c>
       <c r="H16">
-        <v>21.713777</v>
+        <v>27.510291</v>
       </c>
       <c r="I16">
-        <v>0.2055580790654886</v>
+        <v>0.3121658971601493</v>
       </c>
       <c r="J16">
-        <v>0.2224021649087098</v>
+        <v>0.3158665205145959</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.892516</v>
+        <v>7.686250333333334</v>
       </c>
       <c r="N16">
-        <v>38.677548</v>
+        <v>23.058751</v>
       </c>
       <c r="O16">
-        <v>0.1919055231489648</v>
+        <v>0.1118350980244564</v>
       </c>
       <c r="P16">
-        <v>0.2146981359334519</v>
+        <v>0.1277015151558785</v>
       </c>
       <c r="Q16">
-        <v>93.31507246431067</v>
+        <v>70.483661122949</v>
       </c>
       <c r="R16">
-        <v>839.8356521787961</v>
+        <v>634.3529501065411</v>
       </c>
       <c r="S16">
-        <v>0.03944773070055885</v>
+        <v>0.03491110370879769</v>
       </c>
       <c r="T16">
-        <v>0.04774933023346415</v>
+        <v>0.04033663325672928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H17">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I17">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J17">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.682465333333333</v>
+        <v>7.422100333333333</v>
       </c>
       <c r="N17">
-        <v>23.047396</v>
+        <v>22.266301</v>
       </c>
       <c r="O17">
-        <v>0.1143537482417799</v>
+        <v>0.1079917101744605</v>
       </c>
       <c r="P17">
-        <v>0.1279355392260154</v>
+        <v>0.1233128530949856</v>
       </c>
       <c r="Q17">
-        <v>61.46244994186</v>
+        <v>7.6631590190095</v>
       </c>
       <c r="R17">
-        <v>368.77469965116</v>
+        <v>45.978954114057</v>
       </c>
       <c r="S17">
-        <v>0.02598244966728573</v>
+        <v>0.003795622063147103</v>
       </c>
       <c r="T17">
-        <v>0.02096689378416743</v>
+        <v>0.002923666090486709</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H18">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I18">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J18">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>48.991984</v>
       </c>
       <c r="O18">
-        <v>0.2430824291039782</v>
+        <v>0.2376114531551428</v>
       </c>
       <c r="P18">
-        <v>0.2719533213553636</v>
+        <v>0.2713221799087278</v>
       </c>
       <c r="Q18">
-        <v>130.65108805144</v>
+        <v>16.861056717448</v>
       </c>
       <c r="R18">
-        <v>783.9065283086401</v>
+        <v>101.166340304688</v>
       </c>
       <c r="S18">
-        <v>0.05523104468637013</v>
+        <v>0.008351412090753194</v>
       </c>
       <c r="T18">
-        <v>0.04456944831440525</v>
+        <v>0.006432869219115802</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H19">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I19">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J19">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.879703999999998</v>
+        <v>11.67169466666667</v>
       </c>
       <c r="N19">
-        <v>26.639112</v>
+        <v>35.015084</v>
       </c>
       <c r="O19">
-        <v>0.1321746850287372</v>
+        <v>0.1698233937941641</v>
       </c>
       <c r="P19">
-        <v>0.1478730680994164</v>
+        <v>0.1939168032175879</v>
       </c>
       <c r="Q19">
-        <v>71.04078429492</v>
+        <v>12.050773801898</v>
       </c>
       <c r="R19">
-        <v>426.24470576952</v>
+        <v>72.30464281138801</v>
       </c>
       <c r="S19">
-        <v>0.03003156567974913</v>
+        <v>0.005968841675739008</v>
       </c>
       <c r="T19">
-        <v>0.02423438343353583</v>
+        <v>0.004597638994745635</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H20">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I20">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J20">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>21.396232</v>
+        <v>25.61772</v>
       </c>
       <c r="N20">
-        <v>42.792464</v>
+        <v>51.23544</v>
       </c>
       <c r="O20">
-        <v>0.3184836144765398</v>
+        <v>0.3727383448517759</v>
       </c>
       <c r="P20">
-        <v>0.2375399353857526</v>
+        <v>0.2837466486228202</v>
       </c>
       <c r="Q20">
-        <v>171.17745166236</v>
+        <v>26.44974511902</v>
       </c>
       <c r="R20">
-        <v>684.7098066494401</v>
+        <v>105.79898047608</v>
       </c>
       <c r="S20">
-        <v>0.07236303671914628</v>
+        <v>0.01310076378283822</v>
       </c>
       <c r="T20">
-        <v>0.0389295626911955</v>
+        <v>0.006727445144982381</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.000355000000001</v>
+        <v>1.0324785</v>
       </c>
       <c r="H21">
-        <v>16.00071</v>
+        <v>2.064957</v>
       </c>
       <c r="I21">
-        <v>0.2272111764307947</v>
+        <v>0.03514734656035429</v>
       </c>
       <c r="J21">
-        <v>0.1638863908419269</v>
+        <v>0.02370933781115796</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.892516</v>
+        <v>7.686250333333334</v>
       </c>
       <c r="N21">
-        <v>38.677548</v>
+        <v>23.058751</v>
       </c>
       <c r="O21">
-        <v>0.1919055231489648</v>
+        <v>0.1118350980244564</v>
       </c>
       <c r="P21">
-        <v>0.2146981359334519</v>
+        <v>0.1277015151558785</v>
       </c>
       <c r="Q21">
-        <v>103.14470484318</v>
+        <v>7.935888214784501</v>
       </c>
       <c r="R21">
-        <v>618.8682290590801</v>
+        <v>47.615329288707</v>
       </c>
       <c r="S21">
-        <v>0.04360307967824339</v>
+        <v>0.003930706947876764</v>
       </c>
       <c r="T21">
-        <v>0.03518610261862284</v>
+        <v>0.003027718361827432</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H22">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I22">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J22">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.682465333333333</v>
+        <v>7.422100333333333</v>
       </c>
       <c r="N22">
-        <v>23.047396</v>
+        <v>22.266301</v>
       </c>
       <c r="O22">
-        <v>0.1143537482417799</v>
+        <v>0.1079917101744605</v>
       </c>
       <c r="P22">
-        <v>0.1279355392260154</v>
+        <v>0.1233128530949856</v>
       </c>
       <c r="Q22">
-        <v>72.63952534930711</v>
+        <v>71.76061665736844</v>
       </c>
       <c r="R22">
-        <v>653.7557281437639</v>
+        <v>645.8455499163159</v>
       </c>
       <c r="S22">
-        <v>0.03070741262395539</v>
+        <v>0.03554358968332555</v>
       </c>
       <c r="T22">
-        <v>0.0371696510789585</v>
+        <v>0.04106741378453386</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H23">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I23">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J23">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>48.991984</v>
       </c>
       <c r="O23">
-        <v>0.2430824291039782</v>
+        <v>0.2376114531551428</v>
       </c>
       <c r="P23">
-        <v>0.2719533213553636</v>
+        <v>0.2713221799087278</v>
       </c>
       <c r="Q23">
-        <v>154.4102623862951</v>
+        <v>157.8930861981938</v>
       </c>
       <c r="R23">
-        <v>1389.692361476656</v>
+        <v>1421.037775783744</v>
       </c>
       <c r="S23">
-        <v>0.06527492598097506</v>
+        <v>0.07820566950334727</v>
       </c>
       <c r="T23">
-        <v>0.07901174392742319</v>
+        <v>0.09035960122219053</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H24">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I24">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J24">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.879703999999998</v>
+        <v>11.67169466666667</v>
       </c>
       <c r="N24">
-        <v>26.639112</v>
+        <v>35.015084</v>
       </c>
       <c r="O24">
-        <v>0.1321746850287372</v>
+        <v>0.1698233937941641</v>
       </c>
       <c r="P24">
-        <v>0.1478730680994164</v>
+        <v>0.1939168032175879</v>
       </c>
       <c r="Q24">
-        <v>83.95969989004531</v>
+        <v>112.8478421337049</v>
       </c>
       <c r="R24">
-        <v>755.6372990104079</v>
+        <v>1015.630579203344</v>
       </c>
       <c r="S24">
-        <v>0.03549286887419999</v>
+        <v>0.05589441094967582</v>
       </c>
       <c r="T24">
-        <v>0.04296218531990755</v>
+        <v>0.06458095322290897</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H25">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I25">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J25">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.396232</v>
+        <v>25.61772</v>
       </c>
       <c r="N25">
-        <v>42.792464</v>
+        <v>51.23544</v>
       </c>
       <c r="O25">
-        <v>0.3184836144765398</v>
+        <v>0.3727383448517759</v>
       </c>
       <c r="P25">
-        <v>0.2375399353857526</v>
+        <v>0.2837466486228202</v>
       </c>
       <c r="Q25">
-        <v>202.3064302028293</v>
+        <v>247.68506244784</v>
       </c>
       <c r="R25">
-        <v>1213.838581216976</v>
+        <v>1486.11037468704</v>
       </c>
       <c r="S25">
-        <v>0.08552240669035387</v>
+        <v>0.1226803313629402</v>
       </c>
       <c r="T25">
-        <v>0.06901347795164767</v>
+        <v>0.09449737587364229</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.455236333333334</v>
+        <v>9.668505333333334</v>
       </c>
       <c r="H26">
-        <v>28.365709</v>
+        <v>29.005516</v>
       </c>
       <c r="I26">
-        <v>0.2685300053219963</v>
+        <v>0.3291325753236513</v>
       </c>
       <c r="J26">
-        <v>0.290534212024489</v>
+        <v>0.3330343330301537</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.892516</v>
+        <v>7.686250333333334</v>
       </c>
       <c r="N26">
-        <v>38.677548</v>
+        <v>23.058751</v>
       </c>
       <c r="O26">
-        <v>0.1919055231489648</v>
+        <v>0.1118350980244564</v>
       </c>
       <c r="P26">
-        <v>0.2146981359334519</v>
+        <v>0.1277015151558785</v>
       </c>
       <c r="Q26">
-        <v>121.9017857112813</v>
+        <v>74.31455234116845</v>
       </c>
       <c r="R26">
-        <v>1097.116071401532</v>
+        <v>668.8309710705161</v>
       </c>
       <c r="S26">
-        <v>0.05153239115251201</v>
+        <v>0.03680857382436233</v>
       </c>
       <c r="T26">
-        <v>0.06237715374655207</v>
+        <v>0.04252898892687806</v>
       </c>
     </row>
   </sheetData>
